--- a/CTC_App/Iteration3/Track_Layout_Green.xlsx
+++ b/CTC_App/Iteration3/Track_Layout_Green.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
   <si>
     <t xml:space="preserve">Line</t>
   </si>
@@ -160,16 +160,16 @@
     <t xml:space="preserve">U</t>
   </si>
   <si>
+    <t xml:space="preserve">GLENBURY U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
     <t xml:space="preserve">OVERBROOK W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLENBURY U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">INGLEWOOD W</t>
@@ -331,12 +331,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="K110" activeCellId="0" sqref="K110:K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3799,9 +3799,6 @@
       <c r="I115" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="K115" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="str">
@@ -3828,7 +3825,7 @@
         <v>-1</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I116" s="2" t="n">
         <v>-1</v>
@@ -3900,7 +3897,7 @@
         <v>Green</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>117</v>
@@ -3930,7 +3927,7 @@
         <v>Green</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C120" s="7" t="n">
         <v>118</v>
@@ -3960,7 +3957,7 @@
         <v>Green</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>119</v>
@@ -3990,7 +3987,7 @@
         <v>Green</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>120</v>
@@ -4020,7 +4017,7 @@
         <v>Green</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>121</v>
@@ -4050,7 +4047,7 @@
         <v>Green</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124" s="7" t="n">
         <v>122</v>
@@ -4080,7 +4077,7 @@
         <v>Green</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>123</v>
@@ -4098,7 +4095,7 @@
         <v>-1</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I125" s="2" t="n">
         <v>-1</v>
@@ -4110,7 +4107,7 @@
         <v>Green</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>124</v>
@@ -4140,7 +4137,7 @@
         <v>Green</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>125</v>
@@ -4170,7 +4167,7 @@
         <v>Green</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128" s="7" t="n">
         <v>126</v>
@@ -4200,7 +4197,7 @@
         <v>Green</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>127</v>
@@ -4230,7 +4227,7 @@
         <v>Green</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>128</v>
@@ -4260,7 +4257,7 @@
         <v>Green</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>129</v>
@@ -4290,7 +4287,7 @@
         <v>Green</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C132" s="7" t="n">
         <v>130</v>
@@ -4320,7 +4317,7 @@
         <v>Green</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>131</v>
@@ -4350,7 +4347,7 @@
         <v>Green</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>132</v>
@@ -4380,7 +4377,7 @@
         <v>Green</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>133</v>
@@ -4410,7 +4407,7 @@
         <v>Green</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C136" s="7" t="n">
         <v>134</v>
@@ -4440,7 +4437,7 @@
         <v>Green</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>135</v>
@@ -4470,7 +4467,7 @@
         <v>Green</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>136</v>
@@ -4500,7 +4497,7 @@
         <v>Green</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>137</v>
@@ -4530,7 +4527,7 @@
         <v>Green</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C140" s="7" t="n">
         <v>138</v>
@@ -4560,7 +4557,7 @@
         <v>Green</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>139</v>
@@ -4590,7 +4587,7 @@
         <v>Green</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>140</v>
@@ -4620,7 +4617,7 @@
         <v>Green</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>141</v>
@@ -4650,7 +4647,7 @@
         <v>Green</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C144" s="7" t="n">
         <v>142</v>
@@ -4680,7 +4677,7 @@
         <v>Green</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>143</v>

--- a/CTC_App/Iteration3/Track_Layout_Green.xlsx
+++ b/CTC_App/Iteration3/Track_Layout_Green.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasse\Desktop\ECE1140\Team_X_ECE_1140\CTC_App\Iteration3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23593F2B-56CD-4CCC-BA2A-51C9C50ECF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E37B9F-681E-416A-B646-250F3F20AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -592,25 +592,25 @@
   <dimension ref="A1:AMF152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="2" customWidth="1"/>
-    <col min="11" max="1020" width="8.77734375" style="2"/>
+    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11" max="1020" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -668,7 +668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -697,7 +697,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" ref="A4:A38" si="0">A3</f>
         <v>Green</v>
@@ -727,7 +727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -757,7 +757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -787,7 +787,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -817,7 +817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -847,7 +847,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -877,7 +877,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -907,7 +907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -937,7 +937,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -967,7 +967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -997,7 +997,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1027,7 +1027,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1057,7 +1057,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1087,7 +1087,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1117,7 +1117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1147,7 +1147,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1177,7 +1177,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1207,7 +1207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1267,7 +1267,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1297,7 +1297,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1327,7 +1327,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1357,7 +1357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1387,7 +1387,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1417,7 +1417,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1447,7 +1447,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1477,7 +1477,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1507,13 +1507,13 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -1537,7 +1537,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1567,7 +1567,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1597,7 +1597,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1627,7 +1627,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1657,7 +1657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1687,7 +1687,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1717,7 +1717,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
@@ -1747,7 +1747,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>A35</f>
         <v>Green</v>
@@ -1777,7 +1777,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
         <f t="shared" ref="A40:A71" si="1">A39</f>
         <v>Green</v>
@@ -1807,7 +1807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1837,7 +1837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1867,7 +1867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1897,7 +1897,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1927,7 +1927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1957,7 +1957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1987,7 +1987,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2017,7 +2017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2047,7 +2047,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2077,7 +2077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2107,7 +2107,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2137,7 +2137,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2167,7 +2167,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2197,7 +2197,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2227,7 +2227,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2257,7 +2257,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2287,7 +2287,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2317,7 +2317,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2347,7 +2347,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2377,7 +2377,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2407,7 +2407,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2437,7 +2437,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2467,7 +2467,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2497,7 +2497,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2527,7 +2527,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2557,7 +2557,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2587,7 +2587,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2617,7 +2617,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2647,7 +2647,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2677,7 +2677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2707,7 +2707,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2737,7 +2737,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f t="shared" ref="A72:A103" si="2">A71</f>
         <v>Green</v>
@@ -2767,7 +2767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2797,7 +2797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2827,7 +2827,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2857,7 +2857,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2887,7 +2887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2917,7 +2917,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2947,7 +2947,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2977,7 +2977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3007,7 +3007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3037,7 +3037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3067,7 +3067,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3097,7 +3097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3127,7 +3127,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3157,7 +3157,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3187,7 +3187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3217,7 +3217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3247,7 +3247,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3277,7 +3277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3307,7 +3307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3337,7 +3337,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3367,7 +3367,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3397,7 +3397,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3427,7 +3427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3457,7 +3457,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3487,7 +3487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3517,7 +3517,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3547,7 +3547,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3577,7 +3577,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3607,7 +3607,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3667,7 +3667,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3697,7 +3697,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="str">
         <f t="shared" ref="A104:A135" si="3">A103</f>
         <v>Green</v>
@@ -3727,7 +3727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3757,7 +3757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3787,7 +3787,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3817,7 +3817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3847,7 +3847,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3877,7 +3877,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3907,7 +3907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3937,7 +3937,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3967,7 +3967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3997,7 +3997,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4027,7 +4027,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4057,7 +4057,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4088,7 +4088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4118,7 +4118,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4148,7 +4148,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4178,7 +4178,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4208,7 +4208,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4238,7 +4238,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4268,7 +4268,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4298,7 +4298,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4328,7 +4328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4358,7 +4358,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4388,7 +4388,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4418,7 +4418,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4448,7 +4448,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4478,7 +4478,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4508,7 +4508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4538,7 +4538,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4568,7 +4568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4598,7 +4598,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4628,7 +4628,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -4658,7 +4658,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="str">
         <f t="shared" ref="A136:A152" si="4">A135</f>
         <v>Green</v>
@@ -4688,7 +4688,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4718,7 +4718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4748,7 +4748,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4778,7 +4778,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4808,7 +4808,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4838,7 +4838,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4868,7 +4868,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4898,7 +4898,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4928,7 +4928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4958,7 +4958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -4988,7 +4988,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -5018,7 +5018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -5048,7 +5048,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -5078,7 +5078,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -5109,7 +5109,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>
@@ -5139,7 +5139,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Green</v>

--- a/CTC_App/Iteration3/Track_Layout_Green.xlsx
+++ b/CTC_App/Iteration3/Track_Layout_Green.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasse\Desktop\ECE1140\Team_X_ECE_1140\CTC_App\Iteration3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E37B9F-681E-416A-B646-250F3F20AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E952FF3F-C0BB-4946-BC8F-9755B0C6EC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,15 +266,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,8 +593,8 @@
   <dimension ref="A1:AMF152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,7 +606,7 @@
     <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="9" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
     <col min="11" max="1020" width="8.7109375" style="2"/>
   </cols>
@@ -635,7 +636,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -646,7 +647,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="1">
@@ -664,7 +665,7 @@
       <c r="H2" s="1">
         <v>-1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -675,7 +676,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="1">
@@ -693,7 +694,7 @@
       <c r="H3" s="1">
         <v>-1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -720,10 +721,10 @@
       <c r="G4" s="1">
         <v>-1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -753,7 +754,7 @@
       <c r="H5" s="1">
         <v>-1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -765,7 +766,7 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="1">
@@ -783,7 +784,7 @@
       <c r="H6" s="1">
         <v>-1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -813,7 +814,7 @@
       <c r="H7" s="1">
         <v>-1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -843,7 +844,7 @@
       <c r="H8" s="1">
         <v>-1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -855,7 +856,7 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>7</v>
       </c>
       <c r="D9" s="1">
@@ -873,7 +874,7 @@
       <c r="H9" s="1">
         <v>-1</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -903,7 +904,7 @@
       <c r="H10" s="1">
         <v>-1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -930,10 +931,10 @@
       <c r="G11" s="1">
         <v>-1</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -945,7 +946,7 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>10</v>
       </c>
       <c r="D12" s="1">
@@ -963,7 +964,7 @@
       <c r="H12" s="1">
         <v>-1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -993,7 +994,7 @@
       <c r="H13" s="1">
         <v>-1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1005,7 +1006,7 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>12</v>
       </c>
       <c r="D14" s="1">
@@ -1023,7 +1024,7 @@
       <c r="H14" s="1">
         <v>-1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1053,7 +1054,7 @@
       <c r="H15" s="1">
         <v>-1</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1083,7 +1084,7 @@
       <c r="H16" s="1">
         <v>-1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1095,7 +1096,7 @@
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>15</v>
       </c>
       <c r="D17" s="1">
@@ -1113,7 +1114,7 @@
       <c r="H17" s="1">
         <v>-1</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1140,10 +1141,10 @@
       <c r="G18" s="1">
         <v>-1</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1155,7 +1156,7 @@
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>17</v>
       </c>
       <c r="D19" s="1">
@@ -1173,7 +1174,7 @@
       <c r="H19" s="1">
         <v>-1</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1203,7 +1204,7 @@
       <c r="H20" s="1">
         <v>-1</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1230,10 +1231,10 @@
       <c r="G21" s="1">
         <v>-1</v>
       </c>
-      <c r="H21" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1245,7 +1246,7 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>20</v>
       </c>
       <c r="D22" s="1">
@@ -1263,7 +1264,7 @@
       <c r="H22" s="1">
         <v>-1</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1293,7 +1294,7 @@
       <c r="H23" s="1">
         <v>-1</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1305,7 +1306,7 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>22</v>
       </c>
       <c r="D24" s="1">
@@ -1320,10 +1321,10 @@
       <c r="G24" s="1">
         <v>-1</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1353,7 +1354,7 @@
       <c r="H25" s="1">
         <v>-1</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1383,7 +1384,7 @@
       <c r="H26" s="1">
         <v>-1</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1395,7 +1396,7 @@
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>25</v>
       </c>
       <c r="D27" s="1">
@@ -1413,7 +1414,7 @@
       <c r="H27" s="1">
         <v>-1</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1443,7 +1444,7 @@
       <c r="H28" s="1">
         <v>-1</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>27</v>
       </c>
       <c r="D29" s="1">
@@ -1473,7 +1474,7 @@
       <c r="H29" s="1">
         <v>-1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1503,7 +1504,7 @@
       <c r="H30" s="1">
         <v>-1</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1533,7 +1534,7 @@
       <c r="H31" s="1">
         <v>-1</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1545,7 +1546,7 @@
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>30</v>
       </c>
       <c r="D32" s="1">
@@ -1563,7 +1564,7 @@
       <c r="H32" s="1">
         <v>-1</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1590,10 +1591,10 @@
       <c r="G33" s="1">
         <v>-1</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1605,7 +1606,7 @@
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>32</v>
       </c>
       <c r="D34" s="1">
@@ -1623,7 +1624,7 @@
       <c r="H34" s="1">
         <v>-1</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1653,7 +1654,7 @@
       <c r="H35" s="1">
         <v>-1</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1683,7 +1684,7 @@
       <c r="H36" s="1">
         <v>-1</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1695,7 +1696,7 @@
       <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>35</v>
       </c>
       <c r="D37" s="1">
@@ -1713,7 +1714,7 @@
       <c r="H37" s="1">
         <v>-1</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1743,7 +1744,7 @@
       <c r="H38" s="1">
         <v>-1</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1773,7 +1774,7 @@
       <c r="H39" s="1">
         <v>-1</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1785,7 +1786,7 @@
       <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>38</v>
       </c>
       <c r="D40" s="1">
@@ -1803,7 +1804,7 @@
       <c r="H40" s="1">
         <v>-1</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1830,10 +1831,10 @@
       <c r="G41" s="1">
         <v>-1</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1863,7 +1864,7 @@
       <c r="H42" s="1">
         <v>-1</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1875,7 +1876,7 @@
       <c r="B43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>41</v>
       </c>
       <c r="D43" s="1">
@@ -1893,7 +1894,7 @@
       <c r="H43" s="1">
         <v>-1</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1923,7 +1924,7 @@
       <c r="H44" s="1">
         <v>-1</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1953,7 +1954,7 @@
       <c r="H45" s="1">
         <v>-1</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1965,7 +1966,7 @@
       <c r="B46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>44</v>
       </c>
       <c r="D46" s="1">
@@ -1983,7 +1984,7 @@
       <c r="H46" s="1">
         <v>-1</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2013,7 +2014,7 @@
       <c r="H47" s="1">
         <v>-1</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2043,7 +2044,7 @@
       <c r="H48" s="1">
         <v>-1</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2055,7 +2056,7 @@
       <c r="B49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>47</v>
       </c>
       <c r="D49" s="1">
@@ -2073,7 +2074,7 @@
       <c r="H49" s="1">
         <v>-1</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2100,10 +2101,10 @@
       <c r="G50" s="1">
         <v>-1</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2133,7 +2134,7 @@
       <c r="H51" s="1">
         <v>-1</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2145,7 +2146,7 @@
       <c r="B52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>50</v>
       </c>
       <c r="D52" s="1">
@@ -2163,7 +2164,7 @@
       <c r="H52" s="1">
         <v>-1</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2193,7 +2194,7 @@
       <c r="H53" s="1">
         <v>-1</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2223,7 +2224,7 @@
       <c r="H54" s="1">
         <v>-1</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2235,7 +2236,7 @@
       <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>53</v>
       </c>
       <c r="D55" s="1">
@@ -2253,7 +2254,7 @@
       <c r="H55" s="1">
         <v>-1</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2283,7 +2284,7 @@
       <c r="H56" s="1">
         <v>-1</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2313,7 +2314,7 @@
       <c r="H57" s="1">
         <v>-1</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2325,7 +2326,7 @@
       <c r="B58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>56</v>
       </c>
       <c r="D58" s="1">
@@ -2343,7 +2344,7 @@
       <c r="H58" s="1">
         <v>-1</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2370,10 +2371,10 @@
       <c r="G59" s="1">
         <v>58</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2403,7 +2404,7 @@
       <c r="H60" s="1">
         <v>-1</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2415,7 +2416,7 @@
       <c r="B61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>59</v>
       </c>
       <c r="D61" s="1">
@@ -2433,7 +2434,7 @@
       <c r="H61" s="1">
         <v>-1</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2463,7 +2464,7 @@
       <c r="H62" s="1">
         <v>-1</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2493,7 +2494,7 @@
       <c r="H63" s="1">
         <v>-1</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2505,7 +2506,7 @@
       <c r="B64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>62</v>
       </c>
       <c r="D64" s="1">
@@ -2520,10 +2521,10 @@
       <c r="G64" s="1">
         <v>-1</v>
       </c>
-      <c r="H64" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I64" s="2">
+      <c r="H64" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I64" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2553,7 +2554,7 @@
       <c r="H65" s="1">
         <v>-1</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2583,7 +2584,7 @@
       <c r="H66" s="1">
         <v>-1</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2595,7 +2596,7 @@
       <c r="B67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>65</v>
       </c>
       <c r="D67" s="1">
@@ -2610,10 +2611,10 @@
       <c r="G67" s="1">
         <v>-1</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2643,7 +2644,7 @@
       <c r="H68" s="1">
         <v>-1</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2673,7 +2674,7 @@
       <c r="H69" s="1">
         <v>-1</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2685,7 +2686,7 @@
       <c r="B70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>68</v>
       </c>
       <c r="D70" s="1">
@@ -2703,7 +2704,7 @@
       <c r="H70" s="1">
         <v>-1</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2733,7 +2734,7 @@
       <c r="H71" s="1">
         <v>-1</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2760,10 +2761,10 @@
       <c r="G72" s="1">
         <v>-1</v>
       </c>
-      <c r="H72" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I72" s="2">
+      <c r="H72" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I72" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2775,7 +2776,7 @@
       <c r="B73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>71</v>
       </c>
       <c r="D73" s="1">
@@ -2793,7 +2794,7 @@
       <c r="H73" s="1">
         <v>-1</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2823,7 +2824,7 @@
       <c r="H74" s="1">
         <v>-1</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2850,10 +2851,10 @@
       <c r="G75" s="1">
         <v>-1</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2865,7 +2866,7 @@
       <c r="B76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>74</v>
       </c>
       <c r="D76" s="1">
@@ -2883,7 +2884,7 @@
       <c r="H76" s="1">
         <v>-1</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2913,7 +2914,7 @@
       <c r="H77" s="1">
         <v>-1</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2943,7 +2944,7 @@
       <c r="H78" s="1">
         <v>-1</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2970,10 +2971,10 @@
       <c r="G79" s="1">
         <v>101</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -2985,7 +2986,7 @@
       <c r="B80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>78</v>
       </c>
       <c r="D80" s="1">
@@ -3003,7 +3004,7 @@
       <c r="H80" s="1">
         <v>-1</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3033,7 +3034,7 @@
       <c r="H81" s="1">
         <v>-1</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3063,7 +3064,7 @@
       <c r="H82" s="1">
         <v>-1</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3090,10 +3091,10 @@
       <c r="G83" s="1">
         <v>-1</v>
       </c>
-      <c r="H83" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I83" s="2">
+      <c r="H83" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I83" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3105,7 +3106,7 @@
       <c r="B84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>82</v>
       </c>
       <c r="D84" s="1">
@@ -3123,7 +3124,7 @@
       <c r="H84" s="1">
         <v>-1</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3153,7 +3154,7 @@
       <c r="H85" s="1">
         <v>-1</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3183,7 +3184,7 @@
       <c r="H86" s="1">
         <v>-1</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3213,7 +3214,7 @@
       <c r="H87" s="1">
         <v>-1</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3225,7 +3226,7 @@
       <c r="B88" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>86</v>
       </c>
       <c r="D88" s="1">
@@ -3243,7 +3244,7 @@
       <c r="H88" s="1">
         <v>-1</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3273,7 +3274,7 @@
       <c r="H89" s="1">
         <v>-1</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3300,10 +3301,10 @@
       <c r="G90" s="1">
         <v>-1</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3330,10 +3331,10 @@
       <c r="G91" s="1">
         <v>-1</v>
       </c>
-      <c r="H91" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I91" s="2">
+      <c r="H91" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I91" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3345,7 +3346,7 @@
       <c r="B92" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <v>90</v>
       </c>
       <c r="D92" s="1">
@@ -3363,7 +3364,7 @@
       <c r="H92" s="1">
         <v>-1</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3393,7 +3394,7 @@
       <c r="H93" s="1">
         <v>-1</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3423,7 +3424,7 @@
       <c r="H94" s="1">
         <v>-1</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3453,7 +3454,7 @@
       <c r="H95" s="1">
         <v>-1</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3465,7 +3466,7 @@
       <c r="B96" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>94</v>
       </c>
       <c r="D96" s="1">
@@ -3483,7 +3484,7 @@
       <c r="H96" s="1">
         <v>-1</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3513,7 +3514,7 @@
       <c r="H97" s="1">
         <v>-1</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3540,10 +3541,10 @@
       <c r="G98" s="1">
         <v>-1</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H98" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3570,10 +3571,10 @@
       <c r="G99" s="1">
         <v>-1</v>
       </c>
-      <c r="H99" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I99" s="2">
+      <c r="H99" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I99" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3585,7 +3586,7 @@
       <c r="B100" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>98</v>
       </c>
       <c r="D100" s="1">
@@ -3603,7 +3604,7 @@
       <c r="H100" s="1">
         <v>-1</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3633,7 +3634,7 @@
       <c r="H101" s="1">
         <v>-1</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3663,7 +3664,7 @@
       <c r="H102" s="1">
         <v>-1</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3693,7 +3694,7 @@
       <c r="H103" s="1">
         <v>-1</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3705,7 +3706,7 @@
       <c r="B104" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <v>102</v>
       </c>
       <c r="D104" s="1">
@@ -3723,7 +3724,7 @@
       <c r="H104" s="1">
         <v>-1</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3753,7 +3754,7 @@
       <c r="H105" s="1">
         <v>-1</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3783,7 +3784,7 @@
       <c r="H106" s="1">
         <v>-1</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3813,7 +3814,7 @@
       <c r="H107" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3825,7 +3826,7 @@
       <c r="B108" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="6">
         <v>106</v>
       </c>
       <c r="D108" s="1">
@@ -3840,10 +3841,10 @@
       <c r="G108" s="1">
         <v>-1</v>
       </c>
-      <c r="H108" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I108" s="2">
+      <c r="H108" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I108" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3873,7 +3874,7 @@
       <c r="H109" s="1">
         <v>-1</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3903,7 +3904,7 @@
       <c r="H110" s="1">
         <v>-1</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3933,7 +3934,7 @@
       <c r="H111" s="1">
         <v>-1</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3945,7 +3946,7 @@
       <c r="B112" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="6">
         <v>110</v>
       </c>
       <c r="D112" s="1">
@@ -3963,7 +3964,7 @@
       <c r="H112" s="1">
         <v>-1</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3993,7 +3994,7 @@
       <c r="H113" s="1">
         <v>-1</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4023,7 +4024,7 @@
       <c r="H114" s="1">
         <v>-1</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4053,7 +4054,7 @@
       <c r="H115" s="1">
         <v>-1</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4065,7 +4066,7 @@
       <c r="B116" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <v>114</v>
       </c>
       <c r="D116" s="1">
@@ -4084,7 +4085,7 @@
       <c r="H116" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4111,10 +4112,10 @@
       <c r="G117" s="1">
         <v>-1</v>
       </c>
-      <c r="H117" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I117" s="2">
+      <c r="H117" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I117" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4144,7 +4145,7 @@
       <c r="H118" s="1">
         <v>-1</v>
       </c>
-      <c r="I118" s="2">
+      <c r="I118" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4174,7 +4175,7 @@
       <c r="H119" s="1">
         <v>-1</v>
       </c>
-      <c r="I119" s="2">
+      <c r="I119" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4186,7 +4187,7 @@
       <c r="B120" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="6">
         <v>118</v>
       </c>
       <c r="D120" s="1">
@@ -4204,7 +4205,7 @@
       <c r="H120" s="1">
         <v>-1</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I120" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4234,7 +4235,7 @@
       <c r="H121" s="1">
         <v>-1</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4264,7 +4265,7 @@
       <c r="H122" s="1">
         <v>-1</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I122" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4294,7 +4295,7 @@
       <c r="H123" s="1">
         <v>-1</v>
       </c>
-      <c r="I123" s="2">
+      <c r="I123" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4306,7 +4307,7 @@
       <c r="B124" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="6">
         <v>122</v>
       </c>
       <c r="D124" s="1">
@@ -4324,7 +4325,7 @@
       <c r="H124" s="1">
         <v>-1</v>
       </c>
-      <c r="I124" s="2">
+      <c r="I124" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4354,7 +4355,7 @@
       <c r="H125" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I125" s="2">
+      <c r="I125" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4381,10 +4382,10 @@
       <c r="G126" s="1">
         <v>-1</v>
       </c>
-      <c r="H126" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I126" s="2">
+      <c r="H126" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I126" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4414,7 +4415,7 @@
       <c r="H127" s="1">
         <v>-1</v>
       </c>
-      <c r="I127" s="2">
+      <c r="I127" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4426,7 +4427,7 @@
       <c r="B128" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="6">
         <v>126</v>
       </c>
       <c r="D128" s="1">
@@ -4444,7 +4445,7 @@
       <c r="H128" s="1">
         <v>-1</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I128" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4474,7 +4475,7 @@
       <c r="H129" s="1">
         <v>-1</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I129" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4504,7 +4505,7 @@
       <c r="H130" s="1">
         <v>-1</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4534,7 +4535,7 @@
       <c r="H131" s="1">
         <v>-1</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I131" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4546,7 +4547,7 @@
       <c r="B132" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="6">
         <v>130</v>
       </c>
       <c r="D132" s="1">
@@ -4564,7 +4565,7 @@
       <c r="H132" s="1">
         <v>-1</v>
       </c>
-      <c r="I132" s="2">
+      <c r="I132" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4594,7 +4595,7 @@
       <c r="H133" s="1">
         <v>-1</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4624,7 +4625,7 @@
       <c r="H134" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I134" s="2">
+      <c r="I134" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4651,10 +4652,10 @@
       <c r="G135" s="1">
         <v>-1</v>
       </c>
-      <c r="H135" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I135" s="2">
+      <c r="H135" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I135" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4666,7 +4667,7 @@
       <c r="B136" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="6">
         <v>134</v>
       </c>
       <c r="D136" s="1">
@@ -4684,7 +4685,7 @@
       <c r="H136" s="1">
         <v>-1</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I136" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4714,7 +4715,7 @@
       <c r="H137" s="1">
         <v>-1</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I137" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4744,7 +4745,7 @@
       <c r="H138" s="1">
         <v>-1</v>
       </c>
-      <c r="I138" s="2">
+      <c r="I138" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4774,7 +4775,7 @@
       <c r="H139" s="1">
         <v>-1</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I139" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4786,7 +4787,7 @@
       <c r="B140" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="6">
         <v>138</v>
       </c>
       <c r="D140" s="1">
@@ -4804,7 +4805,7 @@
       <c r="H140" s="1">
         <v>-1</v>
       </c>
-      <c r="I140" s="2">
+      <c r="I140" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4834,7 +4835,7 @@
       <c r="H141" s="1">
         <v>-1</v>
       </c>
-      <c r="I141" s="2">
+      <c r="I141" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4864,7 +4865,7 @@
       <c r="H142" s="1">
         <v>-1</v>
       </c>
-      <c r="I142" s="2">
+      <c r="I142" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4894,7 +4895,7 @@
       <c r="H143" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I143" s="2">
+      <c r="I143" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4906,7 +4907,7 @@
       <c r="B144" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="6">
         <v>142</v>
       </c>
       <c r="D144" s="1">
@@ -4921,10 +4922,10 @@
       <c r="G144" s="1">
         <v>-1</v>
       </c>
-      <c r="H144" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I144" s="2">
+      <c r="H144" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I144" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4954,7 +4955,7 @@
       <c r="H145" s="1">
         <v>-1</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I145" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -4984,7 +4985,7 @@
       <c r="H146" s="1">
         <v>-1</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I146" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -5014,7 +5015,7 @@
       <c r="H147" s="1">
         <v>-1</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I147" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -5026,7 +5027,7 @@
       <c r="B148" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="6">
         <v>146</v>
       </c>
       <c r="D148" s="1">
@@ -5044,7 +5045,7 @@
       <c r="H148" s="1">
         <v>-1</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I148" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -5074,7 +5075,7 @@
       <c r="H149" s="1">
         <v>-1</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I149" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -5105,7 +5106,7 @@
       <c r="H150" s="1">
         <v>-1</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -5135,7 +5136,7 @@
       <c r="H151" s="1">
         <v>-1</v>
       </c>
-      <c r="I151" s="2">
+      <c r="I151" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -5147,7 +5148,7 @@
       <c r="B152" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="6">
         <v>150</v>
       </c>
       <c r="D152" s="1">
@@ -5165,7 +5166,7 @@
       <c r="H152" s="1">
         <v>-1</v>
       </c>
-      <c r="I152" s="2">
+      <c r="I152" s="9">
         <v>-1</v>
       </c>
     </row>

--- a/CTC_App/Iteration3/Track_Layout_Green.xlsx
+++ b/CTC_App/Iteration3/Track_Layout_Green.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasse\Desktop\ECE1140\Team_X_ECE_1140\CTC_App\Iteration3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E952FF3F-C0BB-4946-BC8F-9755B0C6EC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA58B05B-CE60-4375-9F2E-981A77A34F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,7 +263,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -272,10 +272,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,7 +602,7 @@
     <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
     <col min="11" max="1020" width="8.7109375" style="2"/>
   </cols>
@@ -636,7 +632,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -665,7 +661,7 @@
       <c r="H2" s="1">
         <v>-1</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -691,10 +687,10 @@
       <c r="G3" s="1">
         <v>-1</v>
       </c>
-      <c r="H3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -724,7 +720,7 @@
       <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -752,9 +748,9 @@
         <v>-1</v>
       </c>
       <c r="H5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -781,10 +777,10 @@
       <c r="G6" s="1">
         <v>-1</v>
       </c>
-      <c r="H6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -812,9 +808,9 @@
         <v>-1</v>
       </c>
       <c r="H7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -842,9 +838,9 @@
         <v>-1</v>
       </c>
       <c r="H8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="9">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -871,10 +867,10 @@
       <c r="G9" s="1">
         <v>-1</v>
       </c>
-      <c r="H9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="H9" s="6">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -902,9 +898,9 @@
         <v>-1</v>
       </c>
       <c r="H10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="9">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -934,7 +930,7 @@
       <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -961,10 +957,10 @@
       <c r="G12" s="1">
         <v>-1</v>
       </c>
-      <c r="H12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="H12" s="6">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -992,9 +988,9 @@
         <v>-1</v>
       </c>
       <c r="H13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="9">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1021,10 +1017,10 @@
       <c r="G14" s="1">
         <v>-1</v>
       </c>
-      <c r="H14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="6">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1052,9 +1048,9 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="9">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1082,9 +1078,9 @@
         <v>-1</v>
       </c>
       <c r="H16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="9">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1111,10 +1107,10 @@
       <c r="G17" s="1">
         <v>-1</v>
       </c>
-      <c r="H17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="H17" s="6">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1144,7 +1140,7 @@
       <c r="H18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1171,10 +1167,10 @@
       <c r="G19" s="1">
         <v>-1</v>
       </c>
-      <c r="H19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="H19" s="6">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1202,9 +1198,9 @@
         <v>-1</v>
       </c>
       <c r="H20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I20" s="9">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1231,10 +1227,10 @@
       <c r="G21" s="1">
         <v>-1</v>
       </c>
-      <c r="H21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="H21" s="1">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1261,10 +1257,10 @@
       <c r="G22" s="1">
         <v>-1</v>
       </c>
-      <c r="H22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="H22" s="6">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1292,9 +1288,9 @@
         <v>-1</v>
       </c>
       <c r="H23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="9">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1324,7 +1320,7 @@
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1352,9 +1348,9 @@
         <v>-1</v>
       </c>
       <c r="H25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I25" s="9">
+        <v>23</v>
+      </c>
+      <c r="I25" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1382,9 +1378,9 @@
         <v>-1</v>
       </c>
       <c r="H26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="9">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1411,10 +1407,10 @@
       <c r="G27" s="1">
         <v>-1</v>
       </c>
-      <c r="H27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I27" s="9">
+      <c r="H27" s="6">
+        <v>25</v>
+      </c>
+      <c r="I27" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1442,9 +1438,9 @@
         <v>-1</v>
       </c>
       <c r="H28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I28" s="9">
+        <v>26</v>
+      </c>
+      <c r="I28" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1471,10 +1467,10 @@
       <c r="G29" s="1">
         <v>-1</v>
       </c>
-      <c r="H29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="H29" s="6">
+        <v>27</v>
+      </c>
+      <c r="I29" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1502,9 +1498,9 @@
         <v>-1</v>
       </c>
       <c r="H30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I30" s="9">
+        <v>28</v>
+      </c>
+      <c r="I30" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1532,9 +1528,9 @@
         <v>150</v>
       </c>
       <c r="H31" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I31" s="9">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1561,10 +1557,10 @@
       <c r="G32" s="1">
         <v>-1</v>
       </c>
-      <c r="H32" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="H32" s="6">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1594,7 +1590,7 @@
       <c r="H33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1621,10 +1617,10 @@
       <c r="G34" s="1">
         <v>-1</v>
       </c>
-      <c r="H34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="H34" s="6">
+        <v>32</v>
+      </c>
+      <c r="I34" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1652,9 +1648,9 @@
         <v>-1</v>
       </c>
       <c r="H35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I35" s="9">
+        <v>33</v>
+      </c>
+      <c r="I35" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1682,9 +1678,9 @@
         <v>-1</v>
       </c>
       <c r="H36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I36" s="9">
+        <v>34</v>
+      </c>
+      <c r="I36" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1711,10 +1707,10 @@
       <c r="G37" s="1">
         <v>-1</v>
       </c>
-      <c r="H37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="H37" s="6">
+        <v>35</v>
+      </c>
+      <c r="I37" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1742,9 +1738,9 @@
         <v>-1</v>
       </c>
       <c r="H38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I38" s="9">
+        <v>36</v>
+      </c>
+      <c r="I38" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1772,9 +1768,9 @@
         <v>-1</v>
       </c>
       <c r="H39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I39" s="9">
+        <v>37</v>
+      </c>
+      <c r="I39" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1801,10 +1797,10 @@
       <c r="G40" s="1">
         <v>-1</v>
       </c>
-      <c r="H40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I40" s="9">
+      <c r="H40" s="6">
+        <v>38</v>
+      </c>
+      <c r="I40" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1834,7 +1830,7 @@
       <c r="H41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1862,9 +1858,9 @@
         <v>-1</v>
       </c>
       <c r="H42" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I42" s="9">
+        <v>40</v>
+      </c>
+      <c r="I42" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1891,10 +1887,10 @@
       <c r="G43" s="1">
         <v>-1</v>
       </c>
-      <c r="H43" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I43" s="9">
+      <c r="H43" s="6">
+        <v>41</v>
+      </c>
+      <c r="I43" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1922,9 +1918,9 @@
         <v>-1</v>
       </c>
       <c r="H44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I44" s="9">
+        <v>42</v>
+      </c>
+      <c r="I44" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1952,9 +1948,9 @@
         <v>-1</v>
       </c>
       <c r="H45" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="9">
+        <v>43</v>
+      </c>
+      <c r="I45" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1981,10 +1977,10 @@
       <c r="G46" s="1">
         <v>-1</v>
       </c>
-      <c r="H46" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I46" s="9">
+      <c r="H46" s="6">
+        <v>44</v>
+      </c>
+      <c r="I46" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2012,9 +2008,9 @@
         <v>-1</v>
       </c>
       <c r="H47" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I47" s="9">
+        <v>45</v>
+      </c>
+      <c r="I47" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2042,9 +2038,9 @@
         <v>-1</v>
       </c>
       <c r="H48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I48" s="9">
+        <v>46</v>
+      </c>
+      <c r="I48" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2071,10 +2067,10 @@
       <c r="G49" s="1">
         <v>-1</v>
       </c>
-      <c r="H49" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I49" s="9">
+      <c r="H49" s="6">
+        <v>47</v>
+      </c>
+      <c r="I49" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2104,7 +2100,7 @@
       <c r="H50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2132,9 +2128,9 @@
         <v>-1</v>
       </c>
       <c r="H51" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I51" s="9">
+        <v>49</v>
+      </c>
+      <c r="I51" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2161,10 +2157,10 @@
       <c r="G52" s="1">
         <v>-1</v>
       </c>
-      <c r="H52" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I52" s="9">
+      <c r="H52" s="6">
+        <v>50</v>
+      </c>
+      <c r="I52" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2192,9 +2188,9 @@
         <v>-1</v>
       </c>
       <c r="H53" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I53" s="9">
+        <v>51</v>
+      </c>
+      <c r="I53" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2222,9 +2218,9 @@
         <v>-1</v>
       </c>
       <c r="H54" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I54" s="9">
+        <v>52</v>
+      </c>
+      <c r="I54" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2251,10 +2247,10 @@
       <c r="G55" s="1">
         <v>-1</v>
       </c>
-      <c r="H55" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I55" s="9">
+      <c r="H55" s="6">
+        <v>53</v>
+      </c>
+      <c r="I55" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2282,9 +2278,9 @@
         <v>-1</v>
       </c>
       <c r="H56" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I56" s="9">
+        <v>54</v>
+      </c>
+      <c r="I56" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2312,9 +2308,9 @@
         <v>-1</v>
       </c>
       <c r="H57" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I57" s="9">
+        <v>55</v>
+      </c>
+      <c r="I57" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2341,10 +2337,10 @@
       <c r="G58" s="1">
         <v>-1</v>
       </c>
-      <c r="H58" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I58" s="9">
+      <c r="H58" s="6">
+        <v>56</v>
+      </c>
+      <c r="I58" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2374,7 +2370,7 @@
       <c r="H59" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2402,9 +2398,9 @@
         <v>-1</v>
       </c>
       <c r="H60" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I60" s="9">
+        <v>58</v>
+      </c>
+      <c r="I60" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2431,10 +2427,10 @@
       <c r="G61" s="1">
         <v>-1</v>
       </c>
-      <c r="H61" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I61" s="9">
+      <c r="H61" s="6">
+        <v>59</v>
+      </c>
+      <c r="I61" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2462,9 +2458,9 @@
         <v>-1</v>
       </c>
       <c r="H62" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I62" s="9">
+        <v>60</v>
+      </c>
+      <c r="I62" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2492,9 +2488,9 @@
         <v>-1</v>
       </c>
       <c r="H63" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I63" s="9">
+        <v>61</v>
+      </c>
+      <c r="I63" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2521,10 +2517,10 @@
       <c r="G64" s="1">
         <v>-1</v>
       </c>
-      <c r="H64" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I64" s="9">
+      <c r="H64" s="6">
+        <v>62</v>
+      </c>
+      <c r="I64" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2552,9 +2548,9 @@
         <v>62</v>
       </c>
       <c r="H65" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I65" s="9">
+        <v>63</v>
+      </c>
+      <c r="I65" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2582,9 +2578,9 @@
         <v>-1</v>
       </c>
       <c r="H66" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I66" s="9">
+        <v>64</v>
+      </c>
+      <c r="I66" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2614,7 +2610,7 @@
       <c r="H67" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2642,9 +2638,9 @@
         <v>-1</v>
       </c>
       <c r="H68" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I68" s="9">
+        <v>66</v>
+      </c>
+      <c r="I68" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2672,9 +2668,9 @@
         <v>-1</v>
       </c>
       <c r="H69" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I69" s="9">
+        <v>67</v>
+      </c>
+      <c r="I69" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2701,10 +2697,10 @@
       <c r="G70" s="1">
         <v>-1</v>
       </c>
-      <c r="H70" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I70" s="9">
+      <c r="H70" s="6">
+        <v>68</v>
+      </c>
+      <c r="I70" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2732,9 +2728,9 @@
         <v>-1</v>
       </c>
       <c r="H71" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I71" s="9">
+        <v>69</v>
+      </c>
+      <c r="I71" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2761,10 +2757,10 @@
       <c r="G72" s="1">
         <v>-1</v>
       </c>
-      <c r="H72" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I72" s="9">
+      <c r="H72" s="1">
+        <v>70</v>
+      </c>
+      <c r="I72" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2791,10 +2787,10 @@
       <c r="G73" s="1">
         <v>-1</v>
       </c>
-      <c r="H73" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I73" s="9">
+      <c r="H73" s="6">
+        <v>71</v>
+      </c>
+      <c r="I73" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2822,9 +2818,9 @@
         <v>-1</v>
       </c>
       <c r="H74" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I74" s="9">
+        <v>72</v>
+      </c>
+      <c r="I74" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2854,7 +2850,7 @@
       <c r="H75" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2881,10 +2877,10 @@
       <c r="G76" s="1">
         <v>-1</v>
       </c>
-      <c r="H76" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I76" s="9">
+      <c r="H76" s="6">
+        <v>74</v>
+      </c>
+      <c r="I76" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2912,9 +2908,9 @@
         <v>-1</v>
       </c>
       <c r="H77" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I77" s="9">
+        <v>75</v>
+      </c>
+      <c r="I77" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2942,9 +2938,9 @@
         <v>-1</v>
       </c>
       <c r="H78" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I78" s="9">
+        <v>76</v>
+      </c>
+      <c r="I78" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2974,7 +2970,7 @@
       <c r="H79" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3001,10 +2997,10 @@
       <c r="G80" s="1">
         <v>-1</v>
       </c>
-      <c r="H80" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I80" s="9">
+      <c r="H80" s="6">
+        <v>78</v>
+      </c>
+      <c r="I80" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3032,9 +3028,9 @@
         <v>-1</v>
       </c>
       <c r="H81" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I81" s="9">
+        <v>79</v>
+      </c>
+      <c r="I81" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3062,9 +3058,9 @@
         <v>-1</v>
       </c>
       <c r="H82" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I82" s="9">
+        <v>80</v>
+      </c>
+      <c r="I82" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3091,10 +3087,10 @@
       <c r="G83" s="1">
         <v>-1</v>
       </c>
-      <c r="H83" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I83" s="9">
+      <c r="H83" s="1">
+        <v>81</v>
+      </c>
+      <c r="I83" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3121,10 +3117,10 @@
       <c r="G84" s="1">
         <v>-1</v>
       </c>
-      <c r="H84" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I84" s="9">
+      <c r="H84" s="6">
+        <v>82</v>
+      </c>
+      <c r="I84" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3152,9 +3148,9 @@
         <v>-1</v>
       </c>
       <c r="H85" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I85" s="9">
+        <v>83</v>
+      </c>
+      <c r="I85" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3182,9 +3178,9 @@
         <v>-1</v>
       </c>
       <c r="H86" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I86" s="9">
+        <v>84</v>
+      </c>
+      <c r="I86" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3212,9 +3208,9 @@
         <v>100</v>
       </c>
       <c r="H87" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I87" s="9">
+        <v>85</v>
+      </c>
+      <c r="I87" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3241,10 +3237,10 @@
       <c r="G88" s="1">
         <v>-1</v>
       </c>
-      <c r="H88" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I88" s="9">
+      <c r="H88" s="6">
+        <v>86</v>
+      </c>
+      <c r="I88" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3272,9 +3268,9 @@
         <v>-1</v>
       </c>
       <c r="H89" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I89" s="9">
+        <v>87</v>
+      </c>
+      <c r="I89" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3304,7 +3300,7 @@
       <c r="H90" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3331,10 +3327,10 @@
       <c r="G91" s="1">
         <v>-1</v>
       </c>
-      <c r="H91" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I91" s="9">
+      <c r="H91" s="1">
+        <v>89</v>
+      </c>
+      <c r="I91" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3361,10 +3357,10 @@
       <c r="G92" s="1">
         <v>-1</v>
       </c>
-      <c r="H92" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I92" s="9">
+      <c r="H92" s="6">
+        <v>90</v>
+      </c>
+      <c r="I92" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3392,9 +3388,9 @@
         <v>-1</v>
       </c>
       <c r="H93" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I93" s="9">
+        <v>91</v>
+      </c>
+      <c r="I93" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3422,9 +3418,9 @@
         <v>-1</v>
       </c>
       <c r="H94" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I94" s="9">
+        <v>92</v>
+      </c>
+      <c r="I94" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3452,9 +3448,9 @@
         <v>-1</v>
       </c>
       <c r="H95" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I95" s="9">
+        <v>93</v>
+      </c>
+      <c r="I95" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3481,10 +3477,10 @@
       <c r="G96" s="1">
         <v>-1</v>
       </c>
-      <c r="H96" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I96" s="9">
+      <c r="H96" s="6">
+        <v>94</v>
+      </c>
+      <c r="I96" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3512,9 +3508,9 @@
         <v>-1</v>
       </c>
       <c r="H97" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I97" s="9">
+        <v>95</v>
+      </c>
+      <c r="I97" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3544,7 +3540,7 @@
       <c r="H98" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3571,10 +3567,10 @@
       <c r="G99" s="1">
         <v>-1</v>
       </c>
-      <c r="H99" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I99" s="9">
+      <c r="H99" s="1">
+        <v>97</v>
+      </c>
+      <c r="I99" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3601,10 +3597,10 @@
       <c r="G100" s="1">
         <v>-1</v>
       </c>
-      <c r="H100" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I100" s="9">
+      <c r="H100" s="6">
+        <v>98</v>
+      </c>
+      <c r="I100" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3632,9 +3628,9 @@
         <v>-1</v>
       </c>
       <c r="H101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I101" s="9">
+        <v>99</v>
+      </c>
+      <c r="I101" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3662,9 +3658,9 @@
         <v>-1</v>
       </c>
       <c r="H102" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I102" s="9">
+        <v>100</v>
+      </c>
+      <c r="I102" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3692,9 +3688,9 @@
         <v>-1</v>
       </c>
       <c r="H103" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I103" s="9">
+        <v>101</v>
+      </c>
+      <c r="I103" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3721,10 +3717,10 @@
       <c r="G104" s="1">
         <v>-1</v>
       </c>
-      <c r="H104" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I104" s="9">
+      <c r="H104" s="6">
+        <v>102</v>
+      </c>
+      <c r="I104" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3752,9 +3748,9 @@
         <v>-1</v>
       </c>
       <c r="H105" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I105" s="9">
+        <v>103</v>
+      </c>
+      <c r="I105" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3782,9 +3778,9 @@
         <v>-1</v>
       </c>
       <c r="H106" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I106" s="9">
+        <v>104</v>
+      </c>
+      <c r="I106" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3814,7 +3810,7 @@
       <c r="H107" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I107" s="9">
+      <c r="I107" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3841,10 +3837,10 @@
       <c r="G108" s="1">
         <v>-1</v>
       </c>
-      <c r="H108" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I108" s="9">
+      <c r="H108" s="6">
+        <v>106</v>
+      </c>
+      <c r="I108" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3872,9 +3868,9 @@
         <v>-1</v>
       </c>
       <c r="H109" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I109" s="9">
+        <v>107</v>
+      </c>
+      <c r="I109" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3902,9 +3898,9 @@
         <v>-1</v>
       </c>
       <c r="H110" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I110" s="9">
+        <v>108</v>
+      </c>
+      <c r="I110" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3932,9 +3928,9 @@
         <v>-1</v>
       </c>
       <c r="H111" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I111" s="9">
+        <v>109</v>
+      </c>
+      <c r="I111" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3961,10 +3957,10 @@
       <c r="G112" s="1">
         <v>-1</v>
       </c>
-      <c r="H112" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I112" s="9">
+      <c r="H112" s="6">
+        <v>110</v>
+      </c>
+      <c r="I112" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -3992,9 +3988,9 @@
         <v>-1</v>
       </c>
       <c r="H113" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I113" s="9">
+        <v>111</v>
+      </c>
+      <c r="I113" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4022,9 +4018,9 @@
         <v>-1</v>
       </c>
       <c r="H114" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I114" s="9">
+        <v>112</v>
+      </c>
+      <c r="I114" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4052,9 +4048,9 @@
         <v>-1</v>
       </c>
       <c r="H115" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I115" s="9">
+        <v>113</v>
+      </c>
+      <c r="I115" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4085,7 +4081,7 @@
       <c r="H116" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I116" s="9">
+      <c r="I116" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4112,10 +4108,10 @@
       <c r="G117" s="1">
         <v>-1</v>
       </c>
-      <c r="H117" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I117" s="9">
+      <c r="H117" s="1">
+        <v>115</v>
+      </c>
+      <c r="I117" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4143,9 +4139,9 @@
         <v>-1</v>
       </c>
       <c r="H118" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I118" s="9">
+        <v>116</v>
+      </c>
+      <c r="I118" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4173,9 +4169,9 @@
         <v>-1</v>
       </c>
       <c r="H119" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I119" s="9">
+        <v>117</v>
+      </c>
+      <c r="I119" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4202,10 +4198,10 @@
       <c r="G120" s="1">
         <v>-1</v>
       </c>
-      <c r="H120" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I120" s="9">
+      <c r="H120" s="6">
+        <v>118</v>
+      </c>
+      <c r="I120" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4233,9 +4229,9 @@
         <v>-1</v>
       </c>
       <c r="H121" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I121" s="9">
+        <v>119</v>
+      </c>
+      <c r="I121" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4263,9 +4259,9 @@
         <v>-1</v>
       </c>
       <c r="H122" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I122" s="9">
+        <v>120</v>
+      </c>
+      <c r="I122" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4293,9 +4289,9 @@
         <v>-1</v>
       </c>
       <c r="H123" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I123" s="9">
+        <v>121</v>
+      </c>
+      <c r="I123" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4322,10 +4318,10 @@
       <c r="G124" s="1">
         <v>-1</v>
       </c>
-      <c r="H124" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I124" s="9">
+      <c r="H124" s="6">
+        <v>122</v>
+      </c>
+      <c r="I124" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4355,7 +4351,7 @@
       <c r="H125" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I125" s="9">
+      <c r="I125" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4382,10 +4378,10 @@
       <c r="G126" s="1">
         <v>-1</v>
       </c>
-      <c r="H126" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I126" s="9">
+      <c r="H126" s="1">
+        <v>124</v>
+      </c>
+      <c r="I126" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4413,9 +4409,9 @@
         <v>-1</v>
       </c>
       <c r="H127" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I127" s="9">
+        <v>125</v>
+      </c>
+      <c r="I127" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4442,10 +4438,10 @@
       <c r="G128" s="1">
         <v>-1</v>
       </c>
-      <c r="H128" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I128" s="9">
+      <c r="H128" s="6">
+        <v>126</v>
+      </c>
+      <c r="I128" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4473,9 +4469,9 @@
         <v>-1</v>
       </c>
       <c r="H129" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I129" s="9">
+        <v>127</v>
+      </c>
+      <c r="I129" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4503,9 +4499,9 @@
         <v>-1</v>
       </c>
       <c r="H130" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I130" s="9">
+        <v>128</v>
+      </c>
+      <c r="I130" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4533,9 +4529,9 @@
         <v>-1</v>
       </c>
       <c r="H131" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I131" s="9">
+        <v>129</v>
+      </c>
+      <c r="I131" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4562,10 +4558,10 @@
       <c r="G132" s="1">
         <v>-1</v>
       </c>
-      <c r="H132" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I132" s="9">
+      <c r="H132" s="6">
+        <v>130</v>
+      </c>
+      <c r="I132" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4593,9 +4589,9 @@
         <v>-1</v>
       </c>
       <c r="H133" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I133" s="9">
+        <v>131</v>
+      </c>
+      <c r="I133" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4625,7 +4621,7 @@
       <c r="H134" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I134" s="9">
+      <c r="I134" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4652,10 +4648,10 @@
       <c r="G135" s="1">
         <v>-1</v>
       </c>
-      <c r="H135" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I135" s="9">
+      <c r="H135" s="1">
+        <v>133</v>
+      </c>
+      <c r="I135" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4682,10 +4678,10 @@
       <c r="G136" s="1">
         <v>-1</v>
       </c>
-      <c r="H136" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I136" s="9">
+      <c r="H136" s="6">
+        <v>134</v>
+      </c>
+      <c r="I136" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4713,9 +4709,9 @@
         <v>-1</v>
       </c>
       <c r="H137" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I137" s="9">
+        <v>135</v>
+      </c>
+      <c r="I137" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4743,9 +4739,9 @@
         <v>-1</v>
       </c>
       <c r="H138" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I138" s="9">
+        <v>136</v>
+      </c>
+      <c r="I138" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4773,9 +4769,9 @@
         <v>-1</v>
       </c>
       <c r="H139" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I139" s="9">
+        <v>137</v>
+      </c>
+      <c r="I139" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4802,10 +4798,10 @@
       <c r="G140" s="1">
         <v>-1</v>
       </c>
-      <c r="H140" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I140" s="9">
+      <c r="H140" s="6">
+        <v>138</v>
+      </c>
+      <c r="I140" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4833,9 +4829,9 @@
         <v>-1</v>
       </c>
       <c r="H141" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I141" s="9">
+        <v>139</v>
+      </c>
+      <c r="I141" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4863,9 +4859,9 @@
         <v>-1</v>
       </c>
       <c r="H142" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I142" s="9">
+        <v>140</v>
+      </c>
+      <c r="I142" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4895,7 +4891,7 @@
       <c r="H143" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I143" s="9">
+      <c r="I143" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4922,10 +4918,10 @@
       <c r="G144" s="1">
         <v>-1</v>
       </c>
-      <c r="H144" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I144" s="9">
+      <c r="H144" s="6">
+        <v>142</v>
+      </c>
+      <c r="I144" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4953,9 +4949,9 @@
         <v>-1</v>
       </c>
       <c r="H145" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I145" s="9">
+        <v>143</v>
+      </c>
+      <c r="I145" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4983,9 +4979,9 @@
         <v>-1</v>
       </c>
       <c r="H146" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I146" s="9">
+        <v>144</v>
+      </c>
+      <c r="I146" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -5013,9 +5009,9 @@
         <v>-1</v>
       </c>
       <c r="H147" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I147" s="9">
+        <v>145</v>
+      </c>
+      <c r="I147" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -5042,10 +5038,10 @@
       <c r="G148" s="1">
         <v>-1</v>
       </c>
-      <c r="H148" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I148" s="9">
+      <c r="H148" s="6">
+        <v>146</v>
+      </c>
+      <c r="I148" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -5073,9 +5069,9 @@
         <v>-1</v>
       </c>
       <c r="H149" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I149" s="9">
+        <v>147</v>
+      </c>
+      <c r="I149" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -5104,9 +5100,9 @@
         <v>-1</v>
       </c>
       <c r="H150" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I150" s="9">
+        <v>148</v>
+      </c>
+      <c r="I150" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -5134,9 +5130,9 @@
         <v>-1</v>
       </c>
       <c r="H151" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I151" s="9">
+        <v>149</v>
+      </c>
+      <c r="I151" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -5163,10 +5159,10 @@
       <c r="G152" s="1">
         <v>-1</v>
       </c>
-      <c r="H152" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I152" s="9">
+      <c r="H152" s="6">
+        <v>150</v>
+      </c>
+      <c r="I152" s="2">
         <v>-1</v>
       </c>
     </row>
